--- a/data/lista_geral_diff.xlsx
+++ b/data/lista_geral_diff.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="F2" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="F3" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="F4" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F5" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="F6" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="F7" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="F8" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="F9" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="F10" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="F11" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F12" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="F13" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="F14" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="F15" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="F16" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F17" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="F18" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="F19" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="F20" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="F21" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F22" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="F23" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="F24" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="F25" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="F26" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="F27" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="F28" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F29" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="F30" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F31" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="F32" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="F33" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="F34" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="N34">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O34">
         <v>33</v>
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="F35" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="F36" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="F37" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="F38" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="F39" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="F40" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="F41" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="F42" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="F43" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="F44" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="F45" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="F46" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="F47" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="F48" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="F49" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="F50" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="F51" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="F52" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="F53" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="F54" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="F55" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="F56" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="F57" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="F58" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="F59" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="N59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O59">
         <v>58</v>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="F60" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="N60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O60">
         <v>59</v>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="F61" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="F62" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="F63" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="F64" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="F65" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="F66" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="F67" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="F68" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="F69" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="F70" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="F71" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="F72" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="F73" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="F74" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="F75" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="F76" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="F77" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="F78" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="F79" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="F80" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="F81" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="F82" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="F83" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="F84" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="F85" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="F86" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="F87" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         </is>
       </c>
       <c r="F88" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="F89" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="F90" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="F91" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="F92" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="F93" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="F94" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="F95" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         </is>
       </c>
       <c r="F96" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="F97" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="F98" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="F99" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F100" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="F101" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="F102" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="F103" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="F104" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="F105" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="F106" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="F107" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         </is>
       </c>
       <c r="F108" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="F109" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="F110" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="F111" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="F112" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="F113" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="F114" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="N114">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O114">
         <v>113</v>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="F115" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         </is>
       </c>
       <c r="F116" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="F117" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         </is>
       </c>
       <c r="F118" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="F119" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="F120" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="F121" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="F122" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         </is>
       </c>
       <c r="F123" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         </is>
       </c>
       <c r="F124" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="F125" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="F126" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         </is>
       </c>
       <c r="N126">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O126">
         <v>125</v>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="F127" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         </is>
       </c>
       <c r="N127">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O127">
         <v>126</v>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="F128" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="F129" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="F130" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="F131" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="F132" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         </is>
       </c>
       <c r="F133" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="F134" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="F135" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="F136" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         </is>
       </c>
       <c r="F137" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="F138" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="F139" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F140" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="F141" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="F142" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="F143" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         </is>
       </c>
       <c r="F144" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="F145" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         </is>
       </c>
       <c r="F146" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="N146">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O146">
         <v>145</v>
@@ -11940,7 +11940,7 @@
         </is>
       </c>
       <c r="F147" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         </is>
       </c>
       <c r="N147">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O147">
         <v>146</v>
@@ -12019,7 +12019,7 @@
         </is>
       </c>
       <c r="F148" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="F149" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="F150" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="F151" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="F152" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="F153" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="F154" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="F155" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         </is>
       </c>
       <c r="F156" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="F157" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         </is>
       </c>
       <c r="F158" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         </is>
       </c>
       <c r="F159" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F160" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="F161" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         </is>
       </c>
       <c r="F162" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="F163" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="F164" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         </is>
       </c>
       <c r="F165" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="F166" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         </is>
       </c>
       <c r="F167" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         </is>
       </c>
       <c r="F168" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="F169" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="F170" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         </is>
       </c>
       <c r="F171" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="F172" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         </is>
       </c>
       <c r="F173" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="F174" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         </is>
       </c>
       <c r="F175" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="F176" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="N176">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O176">
         <v>175</v>
@@ -14310,7 +14310,7 @@
         </is>
       </c>
       <c r="F177" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         </is>
       </c>
       <c r="F178" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         </is>
       </c>
       <c r="F179" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="F180" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="F181" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         </is>
       </c>
       <c r="F182" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         </is>
       </c>
       <c r="F183" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         </is>
       </c>
       <c r="F184" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         </is>
       </c>
       <c r="F185" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="F186" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         </is>
       </c>
       <c r="F187" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         </is>
       </c>
       <c r="N187">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O187">
         <v>186</v>
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F188" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         </is>
       </c>
       <c r="N188">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O188">
         <v>187</v>
@@ -15258,7 +15258,7 @@
         </is>
       </c>
       <c r="F189" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         </is>
       </c>
       <c r="F190" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         </is>
       </c>
       <c r="F191" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         </is>
       </c>
       <c r="F192" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         </is>
       </c>
       <c r="F193" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         </is>
       </c>
       <c r="F194" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="F195" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="F196" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         </is>
       </c>
       <c r="F197" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         </is>
       </c>
       <c r="F198" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="F199" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         </is>
       </c>
       <c r="F200" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         </is>
       </c>
       <c r="F201" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="F202" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         </is>
       </c>
       <c r="F203" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="F204" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         </is>
       </c>
       <c r="F205" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="F206" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="F207" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         </is>
       </c>
       <c r="F208" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="F209" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="F210" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="F211" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         </is>
       </c>
       <c r="F212" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         </is>
       </c>
       <c r="F213" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="F214" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         </is>
       </c>
       <c r="F215" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         </is>
       </c>
       <c r="F216" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="F217" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         </is>
       </c>
       <c r="F218" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         </is>
       </c>
       <c r="F219" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="N219">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O219">
         <v>218</v>
@@ -17707,7 +17707,7 @@
         </is>
       </c>
       <c r="F220" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         </is>
       </c>
       <c r="F221" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         </is>
       </c>
       <c r="F222" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         </is>
       </c>
       <c r="F223" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         </is>
       </c>
       <c r="F224" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="F225" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         </is>
       </c>
       <c r="F226" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="F227" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="F228" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="F229" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         </is>
       </c>
       <c r="F230" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         </is>
       </c>
       <c r="F231" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         </is>
       </c>
       <c r="F232" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         </is>
       </c>
       <c r="F233" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         </is>
       </c>
       <c r="F234" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="F235" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         </is>
       </c>
       <c r="N235">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O235">
         <v>234</v>
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="F236" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         </is>
       </c>
       <c r="N236">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O236">
         <v>235</v>
@@ -19050,7 +19050,7 @@
         </is>
       </c>
       <c r="F237" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         </is>
       </c>
       <c r="N237">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O237">
         <v>236</v>
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="F238" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         </is>
       </c>
       <c r="N238">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O238">
         <v>237</v>
@@ -19208,7 +19208,7 @@
         </is>
       </c>
       <c r="F239" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="N239">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O239">
         <v>238</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="F240" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         </is>
       </c>
       <c r="F241" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         </is>
       </c>
       <c r="F242" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         </is>
       </c>
       <c r="F243" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="F244" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         </is>
       </c>
       <c r="F245" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         </is>
       </c>
       <c r="F246" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         </is>
       </c>
       <c r="F247" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         </is>
       </c>
       <c r="F248" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         </is>
       </c>
       <c r="F249" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="F250" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         </is>
       </c>
       <c r="F251" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         </is>
       </c>
       <c r="F252" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="F253" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         </is>
       </c>
       <c r="F254" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="F255" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         </is>
       </c>
       <c r="F256" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         </is>
       </c>
       <c r="F257" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="F258" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         </is>
       </c>
       <c r="F259" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         </is>
       </c>
       <c r="F260" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="F261" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         </is>
       </c>
       <c r="F262" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         </is>
       </c>
       <c r="F263" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         </is>
       </c>
       <c r="F264" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         </is>
       </c>
       <c r="F265" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         </is>
       </c>
       <c r="F266" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         </is>
       </c>
       <c r="F267" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         </is>
       </c>
       <c r="F268" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         </is>
       </c>
       <c r="F269" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         </is>
       </c>
       <c r="F270" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="F271" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         </is>
       </c>
       <c r="F272" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         </is>
       </c>
       <c r="F273" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         </is>
       </c>
       <c r="F274" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="F275" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="F276" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="F277" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         </is>
       </c>
       <c r="F278" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         </is>
       </c>
       <c r="F279" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         </is>
       </c>
       <c r="F280" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         </is>
       </c>
       <c r="F281" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="F282" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         </is>
       </c>
       <c r="N282">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O282">
         <v>281</v>
@@ -22684,7 +22684,7 @@
         </is>
       </c>
       <c r="F283" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         </is>
       </c>
       <c r="F284" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         </is>
       </c>
       <c r="F285" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="F286" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         </is>
       </c>
       <c r="F287" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         </is>
       </c>
       <c r="F288" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="F289" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         </is>
       </c>
       <c r="F290" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         </is>
       </c>
       <c r="F291" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         </is>
       </c>
       <c r="F292" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         </is>
       </c>
       <c r="F293" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -23553,7 +23553,7 @@
         </is>
       </c>
       <c r="F294" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="F295" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         </is>
       </c>
       <c r="F296" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         </is>
       </c>
       <c r="F297" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         </is>
       </c>
       <c r="F298" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="F299" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="F300" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         </is>
       </c>
       <c r="F301" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         </is>
       </c>
       <c r="F302" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         </is>
       </c>
       <c r="F303" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         </is>
       </c>
       <c r="F304" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         </is>
       </c>
       <c r="F305" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         </is>
       </c>
       <c r="F306" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="F307" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         </is>
       </c>
       <c r="F308" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         </is>
       </c>
       <c r="N308">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O308">
         <v>307</v>
@@ -24738,7 +24738,7 @@
         </is>
       </c>
       <c r="F309" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         </is>
       </c>
       <c r="N309">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O309">
         <v>308</v>
@@ -24817,7 +24817,7 @@
         </is>
       </c>
       <c r="F310" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="F311" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="F312" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         </is>
       </c>
       <c r="F313" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         </is>
       </c>
       <c r="F314" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         </is>
       </c>
       <c r="F315" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="F316" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         </is>
       </c>
       <c r="F317" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         </is>
       </c>
       <c r="F318" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         </is>
       </c>
       <c r="F319" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="F320" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         </is>
       </c>
       <c r="F321" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         </is>
       </c>
       <c r="F322" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         </is>
       </c>
       <c r="F323" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         </is>
       </c>
       <c r="F324" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         </is>
       </c>
       <c r="N324">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O324">
         <v>323</v>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="F325" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         </is>
       </c>
       <c r="N325">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O325">
         <v>324</v>
@@ -26081,7 +26081,7 @@
         </is>
       </c>
       <c r="F326" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         </is>
       </c>
       <c r="F327" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         </is>
       </c>
       <c r="F328" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         </is>
       </c>
       <c r="F329" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="F330" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         </is>
       </c>
       <c r="F331" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         </is>
       </c>
       <c r="F332" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         </is>
       </c>
       <c r="F333" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         </is>
       </c>
       <c r="F334" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         </is>
       </c>
       <c r="F335" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="F336" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         </is>
       </c>
       <c r="F337" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         </is>
       </c>
       <c r="F338" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         </is>
       </c>
       <c r="F339" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         </is>
       </c>
       <c r="F340" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         </is>
       </c>
       <c r="N340">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O340">
         <v>339</v>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="F341" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         </is>
       </c>
       <c r="F342" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="F343" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         </is>
       </c>
       <c r="F344" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         </is>
       </c>
       <c r="F345" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         </is>
       </c>
       <c r="F346" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         </is>
       </c>
       <c r="F347" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         </is>
       </c>
       <c r="F348" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         </is>
       </c>
       <c r="F349" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         </is>
       </c>
       <c r="F350" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         </is>
       </c>
       <c r="F351" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         </is>
       </c>
       <c r="F352" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         </is>
       </c>
       <c r="F353" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="F354" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         </is>
       </c>
       <c r="F355" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         </is>
       </c>
       <c r="F356" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         </is>
       </c>
       <c r="F357" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         </is>
       </c>
       <c r="F358" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="N358">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O358">
         <v>357</v>
@@ -28688,7 +28688,7 @@
         </is>
       </c>
       <c r="F359" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         </is>
       </c>
       <c r="N359">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O359">
         <v>358</v>
@@ -28767,7 +28767,7 @@
         </is>
       </c>
       <c r="F360" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         </is>
       </c>
       <c r="F361" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         </is>
       </c>
       <c r="F362" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="F363" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         </is>
       </c>
       <c r="F364" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         </is>
       </c>
       <c r="F365" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         </is>
       </c>
       <c r="F366" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         </is>
       </c>
       <c r="F367" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         </is>
       </c>
       <c r="F368" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         </is>
       </c>
       <c r="F369" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="F370" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         </is>
       </c>
       <c r="F371" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         </is>
       </c>
       <c r="F372" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         </is>
       </c>
       <c r="F373" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         </is>
       </c>
       <c r="F374" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         </is>
       </c>
       <c r="F375" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         </is>
       </c>
       <c r="F376" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         </is>
       </c>
       <c r="F377" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         </is>
       </c>
       <c r="F378" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         </is>
       </c>
       <c r="F379" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         </is>
       </c>
       <c r="F380" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         </is>
       </c>
       <c r="F381" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         </is>
       </c>
       <c r="F382" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -30584,7 +30584,7 @@
         </is>
       </c>
       <c r="F383" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         </is>
       </c>
       <c r="F384" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         </is>
       </c>
       <c r="F385" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         </is>
       </c>
       <c r="F386" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         </is>
       </c>
       <c r="F387" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="F388" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         </is>
       </c>
       <c r="F389" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         </is>
       </c>
       <c r="F390" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         </is>
       </c>
       <c r="F391" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         </is>
       </c>
       <c r="F392" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         </is>
       </c>
       <c r="F393" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         </is>
       </c>
       <c r="F394" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         </is>
       </c>
       <c r="F395" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         </is>
       </c>
       <c r="F396" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         </is>
       </c>
       <c r="F397" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         </is>
       </c>
       <c r="F398" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         </is>
       </c>
       <c r="F399" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="F400" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         </is>
       </c>
       <c r="F401" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="F402" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         </is>
       </c>
       <c r="F403" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         </is>
       </c>
       <c r="F404" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         </is>
       </c>
       <c r="F405" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         </is>
       </c>
       <c r="F406" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -32480,7 +32480,7 @@
         </is>
       </c>
       <c r="F407" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -32518,7 +32518,7 @@
         </is>
       </c>
       <c r="N407">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O407">
         <v>406</v>
@@ -32559,7 +32559,7 @@
         </is>
       </c>
       <c r="F408" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         </is>
       </c>
       <c r="F409" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         </is>
       </c>
       <c r="F410" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         </is>
       </c>
       <c r="F411" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         </is>
       </c>
       <c r="F412" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         </is>
       </c>
       <c r="F413" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         </is>
       </c>
       <c r="F414" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         </is>
       </c>
       <c r="F415" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         </is>
       </c>
       <c r="F416" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         </is>
       </c>
       <c r="F417" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         </is>
       </c>
       <c r="F418" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         </is>
       </c>
       <c r="F419" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         </is>
       </c>
       <c r="F420" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="F421" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         </is>
       </c>
       <c r="F422" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         </is>
       </c>
       <c r="F423" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         </is>
       </c>
       <c r="F424" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         </is>
       </c>
       <c r="F425" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="F426" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         </is>
       </c>
       <c r="F427" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -34139,7 +34139,7 @@
         </is>
       </c>
       <c r="F428" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         </is>
       </c>
       <c r="F429" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         </is>
       </c>
       <c r="F430" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         </is>
       </c>
       <c r="F431" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         </is>
       </c>
       <c r="F432" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         </is>
       </c>
       <c r="F433" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         </is>
       </c>
       <c r="F434" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         </is>
       </c>
       <c r="F435" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         </is>
       </c>
       <c r="F436" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         </is>
       </c>
       <c r="N436">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O436">
         <v>435</v>
@@ -34850,7 +34850,7 @@
         </is>
       </c>
       <c r="F437" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         </is>
       </c>
       <c r="N437">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O437">
         <v>436</v>
@@ -34929,7 +34929,7 @@
         </is>
       </c>
       <c r="F438" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         </is>
       </c>
       <c r="F439" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         </is>
       </c>
       <c r="F440" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         </is>
       </c>
       <c r="F441" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         </is>
       </c>
       <c r="F442" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="F443" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         </is>
       </c>
       <c r="F444" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         </is>
       </c>
       <c r="F445" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         </is>
       </c>
       <c r="F446" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         </is>
       </c>
       <c r="F447" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         </is>
       </c>
       <c r="F448" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         </is>
       </c>
       <c r="F449" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         </is>
       </c>
       <c r="F450" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         </is>
       </c>
       <c r="F451" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         </is>
       </c>
       <c r="F452" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         </is>
       </c>
       <c r="F453" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         </is>
       </c>
       <c r="F454" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         </is>
       </c>
       <c r="F455" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         </is>
       </c>
       <c r="F456" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         </is>
       </c>
       <c r="N456">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O456">
         <v>455</v>
@@ -36430,7 +36430,7 @@
         </is>
       </c>
       <c r="F457" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         </is>
       </c>
       <c r="F458" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         </is>
       </c>
       <c r="F459" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="F460" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -36746,7 +36746,7 @@
         </is>
       </c>
       <c r="F461" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         </is>
       </c>
       <c r="F462" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         </is>
       </c>
       <c r="F463" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         </is>
       </c>
       <c r="F464" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         </is>
       </c>
       <c r="F465" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         </is>
       </c>
       <c r="F466" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         </is>
       </c>
       <c r="F467" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -37299,7 +37299,7 @@
         </is>
       </c>
       <c r="F468" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         </is>
       </c>
       <c r="F469" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -37457,7 +37457,7 @@
         </is>
       </c>
       <c r="F470" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         </is>
       </c>
       <c r="F471" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -37615,7 +37615,7 @@
         </is>
       </c>
       <c r="F472" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         </is>
       </c>
       <c r="F473" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="F474" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         </is>
       </c>
       <c r="F475" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         </is>
       </c>
       <c r="F476" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -38010,7 +38010,7 @@
         </is>
       </c>
       <c r="F477" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         </is>
       </c>
       <c r="F478" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         </is>
       </c>
       <c r="F479" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="F480" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         </is>
       </c>
       <c r="F481" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
         </is>
       </c>
       <c r="F482" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         </is>
       </c>
       <c r="F483" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         </is>
       </c>
       <c r="F484" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -38642,7 +38642,7 @@
         </is>
       </c>
       <c r="F485" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         </is>
       </c>
       <c r="F486" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -38800,7 +38800,7 @@
         </is>
       </c>
       <c r="F487" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         </is>
       </c>
       <c r="F488" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         </is>
       </c>
       <c r="F489" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         </is>
       </c>
       <c r="F490" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         </is>
       </c>
       <c r="F491" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         </is>
       </c>
       <c r="F492" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         </is>
       </c>
       <c r="F493" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         </is>
       </c>
       <c r="F494" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         </is>
       </c>
       <c r="F495" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         </is>
       </c>
       <c r="F496" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         </is>
       </c>
       <c r="F497" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         </is>
       </c>
       <c r="F498" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         </is>
       </c>
       <c r="F499" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -39827,7 +39827,7 @@
         </is>
       </c>
       <c r="F500" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="F501" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         </is>
       </c>
       <c r="F502" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         </is>
       </c>
       <c r="F503" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         </is>
       </c>
       <c r="F504" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         </is>
       </c>
       <c r="F505" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
@@ -40301,7 +40301,7 @@
         </is>
       </c>
       <c r="F506" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         </is>
       </c>
       <c r="F507" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         </is>
       </c>
       <c r="F508" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         </is>
       </c>
       <c r="F509" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         </is>
       </c>
       <c r="F510" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
@@ -40696,7 +40696,7 @@
         </is>
       </c>
       <c r="F511" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         </is>
       </c>
       <c r="F512" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         </is>
       </c>
       <c r="F513" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
@@ -40892,7 +40892,7 @@
         </is>
       </c>
       <c r="N513">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O513">
         <v>512</v>
@@ -40933,7 +40933,7 @@
         </is>
       </c>
       <c r="F514" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         </is>
       </c>
       <c r="F515" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         </is>
       </c>
       <c r="F516" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         </is>
       </c>
       <c r="F517" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         </is>
       </c>
       <c r="F518" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         </is>
       </c>
       <c r="F519" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
@@ -41407,7 +41407,7 @@
         </is>
       </c>
       <c r="F520" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         </is>
       </c>
       <c r="F521" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         </is>
       </c>
       <c r="F522" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         </is>
       </c>
       <c r="F523" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         </is>
       </c>
       <c r="F524" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         </is>
       </c>
       <c r="F525" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
@@ -41881,7 +41881,7 @@
         </is>
       </c>
       <c r="F526" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
@@ -41960,7 +41960,7 @@
         </is>
       </c>
       <c r="F527" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
         </is>
       </c>
       <c r="F528" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         </is>
       </c>
       <c r="F529" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         </is>
       </c>
       <c r="F530" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G530" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         </is>
       </c>
       <c r="F531" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G531" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="F532" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G532" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         </is>
       </c>
       <c r="F533" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G533" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         </is>
       </c>
       <c r="F534" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G534" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         </is>
       </c>
       <c r="F535" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G535" t="inlineStr">
         <is>
@@ -42671,7 +42671,7 @@
         </is>
       </c>
       <c r="F536" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G536" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         </is>
       </c>
       <c r="F537" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G537" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         </is>
       </c>
       <c r="F538" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G538" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         </is>
       </c>
       <c r="F539" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G539" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         </is>
       </c>
       <c r="F540" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G540" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         </is>
       </c>
       <c r="F541" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G541" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
         </is>
       </c>
       <c r="F542" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G542" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         </is>
       </c>
       <c r="F543" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G543" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         </is>
       </c>
       <c r="F544" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G544" t="inlineStr">
         <is>
@@ -43382,7 +43382,7 @@
         </is>
       </c>
       <c r="F545" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G545" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="F546" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G546" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         </is>
       </c>
       <c r="F547" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G547" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         </is>
       </c>
       <c r="F548" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G548" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         </is>
       </c>
       <c r="F549" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G549" t="inlineStr">
         <is>
@@ -43777,7 +43777,7 @@
         </is>
       </c>
       <c r="F550" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G550" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         </is>
       </c>
       <c r="F551" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G551" t="inlineStr">
         <is>
@@ -43935,7 +43935,7 @@
         </is>
       </c>
       <c r="F552" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G552" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         </is>
       </c>
       <c r="F553" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G553" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         </is>
       </c>
       <c r="F554" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G554" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         </is>
       </c>
       <c r="F555" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G555" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         </is>
       </c>
       <c r="F556" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G556" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         </is>
       </c>
       <c r="N556">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O556">
         <v>555</v>
@@ -44330,7 +44330,7 @@
         </is>
       </c>
       <c r="F557" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G557" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         </is>
       </c>
       <c r="N557">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O557">
         <v>556</v>
@@ -44409,7 +44409,7 @@
         </is>
       </c>
       <c r="F558" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G558" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         </is>
       </c>
       <c r="N558">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O558">
         <v>557</v>
@@ -44488,7 +44488,7 @@
         </is>
       </c>
       <c r="F559" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G559" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="F560" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G560" t="inlineStr">
         <is>
@@ -44646,7 +44646,7 @@
         </is>
       </c>
       <c r="F561" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G561" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         </is>
       </c>
       <c r="F562" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G562" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         </is>
       </c>
       <c r="F563" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G563" t="inlineStr">
         <is>
@@ -44883,7 +44883,7 @@
         </is>
       </c>
       <c r="F564" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G564" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         </is>
       </c>
       <c r="F565" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G565" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         </is>
       </c>
       <c r="F566" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G566" t="inlineStr">
         <is>
@@ -45120,7 +45120,7 @@
         </is>
       </c>
       <c r="F567" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G567" t="inlineStr">
         <is>
@@ -45199,7 +45199,7 @@
         </is>
       </c>
       <c r="F568" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G568" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         </is>
       </c>
       <c r="F569" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G569" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         </is>
       </c>
       <c r="F570" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G570" t="inlineStr">
         <is>
@@ -45436,7 +45436,7 @@
         </is>
       </c>
       <c r="F571" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G571" t="inlineStr">
         <is>
@@ -45515,7 +45515,7 @@
         </is>
       </c>
       <c r="F572" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G572" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         </is>
       </c>
       <c r="F573" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G573" t="inlineStr">
         <is>
@@ -45632,7 +45632,7 @@
         </is>
       </c>
       <c r="N573">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O573">
         <v>572</v>
@@ -45673,7 +45673,7 @@
         </is>
       </c>
       <c r="F574" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G574" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         </is>
       </c>
       <c r="F575" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G575" t="inlineStr">
         <is>
@@ -45831,7 +45831,7 @@
         </is>
       </c>
       <c r="F576" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G576" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         </is>
       </c>
       <c r="F577" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G577" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         </is>
       </c>
       <c r="F578" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G578" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         </is>
       </c>
       <c r="F579" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G579" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         </is>
       </c>
       <c r="F580" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G580" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="F581" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G581" t="inlineStr">
         <is>
@@ -46305,7 +46305,7 @@
         </is>
       </c>
       <c r="F582" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G582" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         </is>
       </c>
       <c r="F583" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G583" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         </is>
       </c>
       <c r="F584" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G584" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         </is>
       </c>
       <c r="F585" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G585" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         </is>
       </c>
       <c r="F586" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G586" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         </is>
       </c>
       <c r="F587" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G587" t="inlineStr">
         <is>
@@ -46779,7 +46779,7 @@
         </is>
       </c>
       <c r="F588" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G588" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         </is>
       </c>
       <c r="N588">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O588">
         <v>587</v>
@@ -46858,7 +46858,7 @@
         </is>
       </c>
       <c r="F589" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G589" t="inlineStr">
         <is>
@@ -46896,7 +46896,7 @@
         </is>
       </c>
       <c r="N589">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O589">
         <v>588</v>
@@ -46937,7 +46937,7 @@
         </is>
       </c>
       <c r="F590" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G590" t="inlineStr">
         <is>
@@ -47016,7 +47016,7 @@
         </is>
       </c>
       <c r="F591" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G591" t="inlineStr">
         <is>
@@ -47095,7 +47095,7 @@
         </is>
       </c>
       <c r="F592" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G592" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         </is>
       </c>
       <c r="F593" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G593" t="inlineStr">
         <is>
@@ -47253,7 +47253,7 @@
         </is>
       </c>
       <c r="F594" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G594" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         </is>
       </c>
       <c r="F595" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G595" t="inlineStr">
         <is>
@@ -47411,7 +47411,7 @@
         </is>
       </c>
       <c r="F596" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G596" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         </is>
       </c>
       <c r="F597" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G597" t="inlineStr">
         <is>
@@ -47569,7 +47569,7 @@
         </is>
       </c>
       <c r="F598" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G598" t="inlineStr">
         <is>
@@ -47648,7 +47648,7 @@
         </is>
       </c>
       <c r="F599" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G599" t="inlineStr">
         <is>
@@ -47727,7 +47727,7 @@
         </is>
       </c>
       <c r="F600" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G600" t="inlineStr">
         <is>
@@ -47806,7 +47806,7 @@
         </is>
       </c>
       <c r="F601" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G601" t="inlineStr">
         <is>
@@ -47885,7 +47885,7 @@
         </is>
       </c>
       <c r="F602" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G602" t="inlineStr">
         <is>
@@ -47964,7 +47964,7 @@
         </is>
       </c>
       <c r="F603" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G603" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="F604" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G604" t="inlineStr">
         <is>
@@ -48122,7 +48122,7 @@
         </is>
       </c>
       <c r="F605" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G605" t="inlineStr">
         <is>
@@ -48201,7 +48201,7 @@
         </is>
       </c>
       <c r="F606" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G606" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         </is>
       </c>
       <c r="F607" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G607" t="inlineStr">
         <is>
@@ -48359,7 +48359,7 @@
         </is>
       </c>
       <c r="F608" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G608" t="inlineStr">
         <is>
@@ -48438,7 +48438,7 @@
         </is>
       </c>
       <c r="F609" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G609" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         </is>
       </c>
       <c r="F610" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G610" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         </is>
       </c>
       <c r="F611" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G611" t="inlineStr">
         <is>
@@ -48675,7 +48675,7 @@
         </is>
       </c>
       <c r="F612" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G612" t="inlineStr">
         <is>
@@ -48754,7 +48754,7 @@
         </is>
       </c>
       <c r="F613" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G613" t="inlineStr">
         <is>
@@ -48833,7 +48833,7 @@
         </is>
       </c>
       <c r="F614" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G614" t="inlineStr">
         <is>
@@ -48912,7 +48912,7 @@
         </is>
       </c>
       <c r="F615" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G615" t="inlineStr">
         <is>
@@ -48991,7 +48991,7 @@
         </is>
       </c>
       <c r="F616" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G616" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         </is>
       </c>
       <c r="F617" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G617" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="F618" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G618" t="inlineStr">
         <is>
@@ -49228,7 +49228,7 @@
         </is>
       </c>
       <c r="F619" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G619" t="inlineStr">
         <is>
@@ -49307,7 +49307,7 @@
         </is>
       </c>
       <c r="F620" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G620" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         </is>
       </c>
       <c r="F621" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G621" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         </is>
       </c>
       <c r="F622" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G622" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         </is>
       </c>
       <c r="F623" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G623" t="inlineStr">
         <is>
@@ -49623,7 +49623,7 @@
         </is>
       </c>
       <c r="F624" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G624" t="inlineStr">
         <is>
@@ -49702,7 +49702,7 @@
         </is>
       </c>
       <c r="F625" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G625" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         </is>
       </c>
       <c r="F626" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G626" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         </is>
       </c>
       <c r="F627" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G627" t="inlineStr">
         <is>
@@ -49939,7 +49939,7 @@
         </is>
       </c>
       <c r="F628" s="2">
-        <v>45659.75454861111</v>
+        <v>45659.77483796296</v>
       </c>
       <c r="G628" t="inlineStr">
         <is>

--- a/data/lista_geral_diff.xlsx
+++ b/data/lista_geral_diff.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="F2" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="F3" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="F4" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F5" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="F6" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="F7" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="N7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>8</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="F8" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="F9" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="F10" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Distribuído para a área responsável</t>
+          <t>Em análise</t>
         </is>
       </c>
       <c r="N10">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="F11" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F12" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="F13" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="F14" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="F15" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="F16" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="F17" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="F18" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="F19" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="F20" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="F21" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F22" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="F23" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="F24" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="F25" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="F26" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="F27" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="F28" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F29" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="F30" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F31" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="F32" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="N32">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O32">
         <v>38</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="F33" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="N33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O33">
         <v>39</v>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="F34" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="N34">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O34">
         <v>40</v>
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="F35" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="N35">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O35">
         <v>41</v>
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="F36" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="F37" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="F38" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="F39" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="F40" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="F41" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="F42" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="F43" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="F44" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="F45" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="F46" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="F47" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="F48" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="N48">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O48">
         <v>54</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="F49" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="N49">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O49">
         <v>55</v>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="F50" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="F51" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="F52" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="F53" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="F54" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="F55" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="F56" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="F57" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="F58" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="F59" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="F60" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="F61" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="F62" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="F63" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="F64" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="F65" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="F66" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="F67" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="F68" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="F69" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="F70" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="F71" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="N71">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O71">
         <v>77</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="F72" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="F73" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="F74" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="F75" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="F76" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="F77" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="F78" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="F79" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="F80" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="F81" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="F82" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="F83" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="F84" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="N84">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O84">
         <v>90</v>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="F85" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="F86" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="F87" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         </is>
       </c>
       <c r="F88" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="F89" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="F90" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="F91" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="F92" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="F93" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="F94" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="F95" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         </is>
       </c>
       <c r="F96" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="F97" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="F98" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="F99" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F100" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="F101" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="F102" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="F103" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="F104" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="F105" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="F106" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="F107" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         </is>
       </c>
       <c r="F108" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="F109" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="F110" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="F111" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="F112" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="F113" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="N113">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O113">
         <v>119</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="F114" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="F115" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         </is>
       </c>
       <c r="F116" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="F117" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         </is>
       </c>
       <c r="F118" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         </is>
       </c>
       <c r="F119" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="F120" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="F121" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="F122" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         </is>
       </c>
       <c r="F123" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         </is>
       </c>
       <c r="F124" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="F125" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="F126" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="F127" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="F128" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="F129" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="F130" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="F131" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="F132" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         </is>
       </c>
       <c r="F133" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="F134" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="F135" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="F136" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         </is>
       </c>
       <c r="F137" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="F138" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="F139" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="F140" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="F141" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="F142" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="F143" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         </is>
       </c>
       <c r="F144" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="F145" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="N145">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O145">
         <v>151</v>
@@ -11861,7 +11861,7 @@
         </is>
       </c>
       <c r="F146" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="N146">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O146">
         <v>152</v>
@@ -11940,7 +11940,7 @@
         </is>
       </c>
       <c r="F147" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         </is>
       </c>
       <c r="F148" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="F149" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="F150" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="F151" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="F152" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="F153" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="F154" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="F155" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         </is>
       </c>
       <c r="F156" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="F157" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         </is>
       </c>
       <c r="F158" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="N158">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O158">
         <v>164</v>
@@ -12888,7 +12888,7 @@
         </is>
       </c>
       <c r="F159" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="N159">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O159">
         <v>165</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="F160" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="F161" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         </is>
       </c>
       <c r="F162" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="F163" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="F164" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         </is>
       </c>
       <c r="F165" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="F166" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         </is>
       </c>
       <c r="F167" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         </is>
       </c>
       <c r="F168" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="F169" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="F170" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         </is>
       </c>
       <c r="F171" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="F172" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         </is>
       </c>
       <c r="F173" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="F174" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="N174">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O174">
         <v>180</v>
@@ -14152,7 +14152,7 @@
         </is>
       </c>
       <c r="F175" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         </is>
       </c>
       <c r="N175">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O175">
         <v>181</v>
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="F176" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         </is>
       </c>
       <c r="F177" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         </is>
       </c>
       <c r="F178" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         </is>
       </c>
       <c r="F179" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="F180" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="F181" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         </is>
       </c>
       <c r="F182" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         </is>
       </c>
       <c r="F183" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         </is>
       </c>
       <c r="F184" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         </is>
       </c>
       <c r="F185" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="F186" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         </is>
       </c>
       <c r="F187" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="F188" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         </is>
       </c>
       <c r="F189" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         </is>
       </c>
       <c r="F190" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         </is>
       </c>
       <c r="F191" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         </is>
       </c>
       <c r="F192" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         </is>
       </c>
       <c r="F193" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         </is>
       </c>
       <c r="F194" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="F195" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="F196" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         </is>
       </c>
       <c r="F197" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         </is>
       </c>
       <c r="F198" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="F199" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         </is>
       </c>
       <c r="F200" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         </is>
       </c>
       <c r="F201" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="F202" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         </is>
       </c>
       <c r="F203" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="F204" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         </is>
       </c>
       <c r="F205" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="F206" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="F207" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         </is>
       </c>
       <c r="F208" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="F209" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="F210" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="F211" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         </is>
       </c>
       <c r="F212" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         </is>
       </c>
       <c r="F213" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="F214" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         </is>
       </c>
       <c r="F215" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         </is>
       </c>
       <c r="F216" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="F217" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         </is>
       </c>
       <c r="F218" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         </is>
       </c>
       <c r="F219" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         </is>
       </c>
       <c r="F220" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         </is>
       </c>
       <c r="F221" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         </is>
       </c>
       <c r="F222" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         </is>
       </c>
       <c r="F223" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         </is>
       </c>
       <c r="F224" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="F225" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         </is>
       </c>
       <c r="F226" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="F227" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="F228" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="F229" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         </is>
       </c>
       <c r="F230" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         </is>
       </c>
       <c r="F231" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         </is>
       </c>
       <c r="F232" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         </is>
       </c>
       <c r="F233" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         </is>
       </c>
       <c r="F234" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="F235" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="F236" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         </is>
       </c>
       <c r="F237" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="F238" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         </is>
       </c>
       <c r="F239" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="F240" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         </is>
       </c>
       <c r="F241" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         </is>
       </c>
       <c r="F242" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         </is>
       </c>
       <c r="N242">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O242">
         <v>248</v>
@@ -19524,7 +19524,7 @@
         </is>
       </c>
       <c r="F243" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="N243">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O243">
         <v>249</v>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="F244" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         </is>
       </c>
       <c r="F245" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         </is>
       </c>
       <c r="F246" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         </is>
       </c>
       <c r="F247" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         </is>
       </c>
       <c r="F248" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         </is>
       </c>
       <c r="F249" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="F250" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         </is>
       </c>
       <c r="F251" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         </is>
       </c>
       <c r="F252" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="F253" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         </is>
       </c>
       <c r="F254" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         </is>
       </c>
       <c r="N254">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O254">
         <v>260</v>
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="F255" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         </is>
       </c>
       <c r="F256" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         </is>
       </c>
       <c r="F257" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="F258" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         </is>
       </c>
       <c r="F259" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         </is>
       </c>
       <c r="F260" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="F261" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         </is>
       </c>
       <c r="F262" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         </is>
       </c>
       <c r="F263" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         </is>
       </c>
       <c r="F264" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         </is>
       </c>
       <c r="F265" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         </is>
       </c>
       <c r="F266" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         </is>
       </c>
       <c r="F267" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         </is>
       </c>
       <c r="F268" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         </is>
       </c>
       <c r="F269" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         </is>
       </c>
       <c r="F270" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         </is>
       </c>
       <c r="N270">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O270">
         <v>276</v>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="F271" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         </is>
       </c>
       <c r="N271">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O271">
         <v>277</v>
@@ -21815,7 +21815,7 @@
         </is>
       </c>
       <c r="F272" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         </is>
       </c>
       <c r="F273" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         </is>
       </c>
       <c r="F274" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="F275" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="F276" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="F277" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         </is>
       </c>
       <c r="F278" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         </is>
       </c>
       <c r="F279" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         </is>
       </c>
       <c r="F280" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         </is>
       </c>
       <c r="F281" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="F282" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         </is>
       </c>
       <c r="F283" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         </is>
       </c>
       <c r="F284" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         </is>
       </c>
       <c r="F285" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="F286" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         </is>
       </c>
       <c r="F287" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         </is>
       </c>
       <c r="F288" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="F289" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         </is>
       </c>
       <c r="F290" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         </is>
       </c>
       <c r="F291" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         </is>
       </c>
       <c r="F292" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         </is>
       </c>
       <c r="F293" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -23553,7 +23553,7 @@
         </is>
       </c>
       <c r="F294" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="F295" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         </is>
       </c>
       <c r="F296" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         </is>
       </c>
       <c r="F297" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         </is>
       </c>
       <c r="F298" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="F299" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="F300" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         </is>
       </c>
       <c r="F301" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         </is>
       </c>
       <c r="F302" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         </is>
       </c>
       <c r="F303" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         </is>
       </c>
       <c r="F304" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         </is>
       </c>
       <c r="F305" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         </is>
       </c>
       <c r="F306" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="F307" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         </is>
       </c>
       <c r="F308" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         </is>
       </c>
       <c r="F309" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         </is>
       </c>
       <c r="F310" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="F311" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="F312" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         </is>
       </c>
       <c r="F313" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         </is>
       </c>
       <c r="F314" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         </is>
       </c>
       <c r="F315" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="F316" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         </is>
       </c>
       <c r="F317" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         </is>
       </c>
       <c r="F318" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         </is>
       </c>
       <c r="F319" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="F320" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         </is>
       </c>
       <c r="F321" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         </is>
       </c>
       <c r="F322" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         </is>
       </c>
       <c r="F323" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         </is>
       </c>
       <c r="F324" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="F325" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         </is>
       </c>
       <c r="F326" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         </is>
       </c>
       <c r="N326">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O326">
         <v>332</v>
@@ -26160,7 +26160,7 @@
         </is>
       </c>
       <c r="F327" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         </is>
       </c>
       <c r="F328" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         </is>
       </c>
       <c r="F329" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="F330" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         </is>
       </c>
       <c r="F331" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         </is>
       </c>
       <c r="F332" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         </is>
       </c>
       <c r="F333" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         </is>
       </c>
       <c r="F334" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         </is>
       </c>
       <c r="F335" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="F336" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         </is>
       </c>
       <c r="F337" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         </is>
       </c>
       <c r="F338" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         </is>
       </c>
       <c r="F339" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         </is>
       </c>
       <c r="F340" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="F341" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         </is>
       </c>
       <c r="F342" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="F343" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         </is>
       </c>
       <c r="F344" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         </is>
       </c>
       <c r="N344">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O344">
         <v>350</v>
@@ -27582,7 +27582,7 @@
         </is>
       </c>
       <c r="F345" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         </is>
       </c>
       <c r="N345">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O345">
         <v>351</v>
@@ -27661,7 +27661,7 @@
         </is>
       </c>
       <c r="F346" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -27699,7 +27699,7 @@
         </is>
       </c>
       <c r="N346">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O346">
         <v>352</v>
@@ -27740,7 +27740,7 @@
         </is>
       </c>
       <c r="F347" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         </is>
       </c>
       <c r="N347">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O347">
         <v>353</v>
@@ -27819,7 +27819,7 @@
         </is>
       </c>
       <c r="F348" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         </is>
       </c>
       <c r="F349" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         </is>
       </c>
       <c r="F350" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         </is>
       </c>
       <c r="F351" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         </is>
       </c>
       <c r="F352" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         </is>
       </c>
       <c r="F353" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="F354" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         </is>
       </c>
       <c r="F355" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         </is>
       </c>
       <c r="F356" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         </is>
       </c>
       <c r="F357" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         </is>
       </c>
       <c r="F358" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -28688,7 +28688,7 @@
         </is>
       </c>
       <c r="F359" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         </is>
       </c>
       <c r="F360" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         </is>
       </c>
       <c r="N360">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O360">
         <v>366</v>
@@ -28846,7 +28846,7 @@
         </is>
       </c>
       <c r="F361" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         </is>
       </c>
       <c r="F362" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="F363" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         </is>
       </c>
       <c r="F364" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         </is>
       </c>
       <c r="F365" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         </is>
       </c>
       <c r="F366" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         </is>
       </c>
       <c r="F367" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         </is>
       </c>
       <c r="F368" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         </is>
       </c>
       <c r="F369" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="F370" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         </is>
       </c>
       <c r="F371" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         </is>
       </c>
       <c r="F372" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         </is>
       </c>
       <c r="F373" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         </is>
       </c>
       <c r="F374" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         </is>
       </c>
       <c r="N374">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O374">
         <v>380</v>
@@ -29952,7 +29952,7 @@
         </is>
       </c>
       <c r="F375" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         </is>
       </c>
       <c r="F376" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         </is>
       </c>
       <c r="F377" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         </is>
       </c>
       <c r="F378" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         </is>
       </c>
       <c r="F379" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         </is>
       </c>
       <c r="F380" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         </is>
       </c>
       <c r="F381" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         </is>
       </c>
       <c r="F382" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -30584,7 +30584,7 @@
         </is>
       </c>
       <c r="F383" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         </is>
       </c>
       <c r="F384" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         </is>
       </c>
       <c r="F385" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         </is>
       </c>
       <c r="F386" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         </is>
       </c>
       <c r="F387" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="F388" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         </is>
       </c>
       <c r="F389" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         </is>
       </c>
       <c r="F390" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         </is>
       </c>
       <c r="F391" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         </is>
       </c>
       <c r="F392" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         </is>
       </c>
       <c r="F393" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         </is>
       </c>
       <c r="N393">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O393">
         <v>399</v>
@@ -31453,7 +31453,7 @@
         </is>
       </c>
       <c r="F394" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         </is>
       </c>
       <c r="F395" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         </is>
       </c>
       <c r="F396" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         </is>
       </c>
       <c r="F397" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         </is>
       </c>
       <c r="F398" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         </is>
       </c>
       <c r="F399" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="F400" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         </is>
       </c>
       <c r="F401" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="F402" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         </is>
       </c>
       <c r="F403" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         </is>
       </c>
       <c r="F404" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         </is>
       </c>
       <c r="F405" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         </is>
       </c>
       <c r="F406" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -32480,7 +32480,7 @@
         </is>
       </c>
       <c r="F407" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         </is>
       </c>
       <c r="F408" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         </is>
       </c>
       <c r="F409" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         </is>
       </c>
       <c r="F410" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         </is>
       </c>
       <c r="F411" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         </is>
       </c>
       <c r="F412" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -32954,7 +32954,7 @@
         </is>
       </c>
       <c r="F413" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         </is>
       </c>
       <c r="F414" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         </is>
       </c>
       <c r="F415" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         </is>
       </c>
       <c r="F416" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         </is>
       </c>
       <c r="F417" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         </is>
       </c>
       <c r="F418" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         </is>
       </c>
       <c r="F419" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         </is>
       </c>
       <c r="F420" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="F421" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         </is>
       </c>
       <c r="F422" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         </is>
       </c>
       <c r="F423" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         </is>
       </c>
       <c r="N423">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O423">
         <v>429</v>
@@ -33823,7 +33823,7 @@
         </is>
       </c>
       <c r="F424" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         </is>
       </c>
       <c r="F425" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="F426" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         </is>
       </c>
       <c r="F427" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -34139,7 +34139,7 @@
         </is>
       </c>
       <c r="F428" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         </is>
       </c>
       <c r="F429" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         </is>
       </c>
       <c r="F430" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         </is>
       </c>
       <c r="F431" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         </is>
       </c>
       <c r="F432" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         </is>
       </c>
       <c r="F433" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         </is>
       </c>
       <c r="F434" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         </is>
       </c>
       <c r="F435" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         </is>
       </c>
       <c r="F436" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -34850,7 +34850,7 @@
         </is>
       </c>
       <c r="F437" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         </is>
       </c>
       <c r="F438" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -35008,7 +35008,7 @@
         </is>
       </c>
       <c r="F439" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         </is>
       </c>
       <c r="F440" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         </is>
       </c>
       <c r="F441" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         </is>
       </c>
       <c r="F442" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="F443" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         </is>
       </c>
       <c r="F444" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -35482,7 +35482,7 @@
         </is>
       </c>
       <c r="F445" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         </is>
       </c>
       <c r="F446" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         </is>
       </c>
       <c r="F447" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         </is>
       </c>
       <c r="F448" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         </is>
       </c>
       <c r="F449" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         </is>
       </c>
       <c r="F450" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         </is>
       </c>
       <c r="F451" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         </is>
       </c>
       <c r="F452" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         </is>
       </c>
       <c r="F453" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         </is>
       </c>
       <c r="F454" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         </is>
       </c>
       <c r="F455" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         </is>
       </c>
       <c r="F456" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         </is>
       </c>
       <c r="F457" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         </is>
       </c>
       <c r="F458" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         </is>
       </c>
       <c r="F459" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="F460" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -36746,7 +36746,7 @@
         </is>
       </c>
       <c r="F461" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         </is>
       </c>
       <c r="F462" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         </is>
       </c>
       <c r="F463" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         </is>
       </c>
       <c r="F464" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         </is>
       </c>
       <c r="F465" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -37141,7 +37141,7 @@
         </is>
       </c>
       <c r="F466" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         </is>
       </c>
       <c r="F467" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -37299,7 +37299,7 @@
         </is>
       </c>
       <c r="F468" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         </is>
       </c>
       <c r="F469" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         </is>
       </c>
       <c r="N469">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O469">
         <v>475</v>
@@ -37457,7 +37457,7 @@
         </is>
       </c>
       <c r="F470" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         </is>
       </c>
       <c r="N470">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O470">
         <v>476</v>
@@ -37536,7 +37536,7 @@
         </is>
       </c>
       <c r="F471" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -37574,7 +37574,7 @@
         </is>
       </c>
       <c r="N471">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O471">
         <v>477</v>
@@ -37615,7 +37615,7 @@
         </is>
       </c>
       <c r="F472" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -37653,7 +37653,7 @@
         </is>
       </c>
       <c r="N472">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O472">
         <v>478</v>
@@ -37694,7 +37694,7 @@
         </is>
       </c>
       <c r="F473" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         </is>
       </c>
       <c r="N473">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O473">
         <v>479</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="F474" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -37811,7 +37811,7 @@
         </is>
       </c>
       <c r="N474">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O474">
         <v>480</v>
@@ -37852,7 +37852,7 @@
         </is>
       </c>
       <c r="F475" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         </is>
       </c>
       <c r="N475">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O475">
         <v>481</v>
@@ -37931,7 +37931,7 @@
         </is>
       </c>
       <c r="F476" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -37969,7 +37969,7 @@
         </is>
       </c>
       <c r="N476">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O476">
         <v>482</v>
@@ -38010,7 +38010,7 @@
         </is>
       </c>
       <c r="F477" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -38089,7 +38089,7 @@
         </is>
       </c>
       <c r="F478" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         </is>
       </c>
       <c r="F479" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="F480" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         </is>
       </c>
       <c r="F481" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
         </is>
       </c>
       <c r="F482" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         </is>
       </c>
       <c r="F483" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -38563,7 +38563,7 @@
         </is>
       </c>
       <c r="F484" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -38642,7 +38642,7 @@
         </is>
       </c>
       <c r="F485" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         </is>
       </c>
       <c r="F486" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -38800,7 +38800,7 @@
         </is>
       </c>
       <c r="F487" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         </is>
       </c>
       <c r="F488" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         </is>
       </c>
       <c r="F489" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         </is>
       </c>
       <c r="F490" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -39116,7 +39116,7 @@
         </is>
       </c>
       <c r="F491" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         </is>
       </c>
       <c r="F492" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         </is>
       </c>
       <c r="F493" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         </is>
       </c>
       <c r="F494" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         </is>
       </c>
       <c r="F495" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -39470,7 +39470,7 @@
         </is>
       </c>
       <c r="N495">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O495">
         <v>501</v>
@@ -39511,7 +39511,7 @@
         </is>
       </c>
       <c r="F496" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         </is>
       </c>
       <c r="F497" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         </is>
       </c>
       <c r="F498" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         </is>
       </c>
       <c r="F499" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -39827,7 +39827,7 @@
         </is>
       </c>
       <c r="F500" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="F501" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         </is>
       </c>
       <c r="F502" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         </is>
       </c>
       <c r="F503" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         </is>
       </c>
       <c r="F504" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         </is>
       </c>
       <c r="F505" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
@@ -40301,7 +40301,7 @@
         </is>
       </c>
       <c r="F506" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         </is>
       </c>
       <c r="F507" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         </is>
       </c>
       <c r="F508" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         </is>
       </c>
       <c r="F509" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
@@ -40617,7 +40617,7 @@
         </is>
       </c>
       <c r="F510" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
@@ -40696,7 +40696,7 @@
         </is>
       </c>
       <c r="F511" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         </is>
       </c>
       <c r="F512" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         </is>
       </c>
       <c r="F513" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         </is>
       </c>
       <c r="F514" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         </is>
       </c>
       <c r="F515" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         </is>
       </c>
       <c r="F516" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         </is>
       </c>
       <c r="F517" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         </is>
       </c>
       <c r="F518" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         </is>
       </c>
       <c r="F519" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
@@ -41407,7 +41407,7 @@
         </is>
       </c>
       <c r="F520" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         </is>
       </c>
       <c r="F521" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         </is>
       </c>
       <c r="F522" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         </is>
       </c>
       <c r="F523" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         </is>
       </c>
       <c r="F524" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
@@ -41802,7 +41802,7 @@
         </is>
       </c>
       <c r="F525" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
@@ -41881,7 +41881,7 @@
         </is>
       </c>
       <c r="F526" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
@@ -41960,7 +41960,7 @@
         </is>
       </c>
       <c r="F527" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
         </is>
       </c>
       <c r="F528" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         </is>
       </c>
       <c r="F529" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         </is>
       </c>
       <c r="F530" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G530" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         </is>
       </c>
       <c r="F531" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G531" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="F532" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G532" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         </is>
       </c>
       <c r="F533" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G533" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         </is>
       </c>
       <c r="F534" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G534" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         </is>
       </c>
       <c r="F535" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G535" t="inlineStr">
         <is>
@@ -42671,7 +42671,7 @@
         </is>
       </c>
       <c r="F536" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G536" t="inlineStr">
         <is>
@@ -42750,7 +42750,7 @@
         </is>
       </c>
       <c r="F537" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G537" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         </is>
       </c>
       <c r="F538" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G538" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         </is>
       </c>
       <c r="F539" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G539" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         </is>
       </c>
       <c r="F540" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G540" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         </is>
       </c>
       <c r="F541" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G541" t="inlineStr">
         <is>
@@ -43145,7 +43145,7 @@
         </is>
       </c>
       <c r="F542" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G542" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         </is>
       </c>
       <c r="F543" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G543" t="inlineStr">
         <is>
@@ -43303,7 +43303,7 @@
         </is>
       </c>
       <c r="F544" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G544" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         </is>
       </c>
       <c r="N544">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O544">
         <v>550</v>
@@ -43382,7 +43382,7 @@
         </is>
       </c>
       <c r="F545" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G545" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         </is>
       </c>
       <c r="N545">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O545">
         <v>551</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="F546" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G546" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         </is>
       </c>
       <c r="F547" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G547" t="inlineStr">
         <is>
@@ -43619,7 +43619,7 @@
         </is>
       </c>
       <c r="F548" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G548" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         </is>
       </c>
       <c r="F549" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G549" t="inlineStr">
         <is>
@@ -43777,7 +43777,7 @@
         </is>
       </c>
       <c r="F550" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G550" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         </is>
       </c>
       <c r="F551" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G551" t="inlineStr">
         <is>
@@ -43935,7 +43935,7 @@
         </is>
       </c>
       <c r="F552" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G552" t="inlineStr">
         <is>
@@ -44014,7 +44014,7 @@
         </is>
       </c>
       <c r="F553" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G553" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         </is>
       </c>
       <c r="F554" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G554" t="inlineStr">
         <is>
@@ -44172,7 +44172,7 @@
         </is>
       </c>
       <c r="F555" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G555" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         </is>
       </c>
       <c r="F556" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G556" t="inlineStr">
         <is>
@@ -44330,7 +44330,7 @@
         </is>
       </c>
       <c r="F557" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G557" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         </is>
       </c>
       <c r="F558" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G558" t="inlineStr">
         <is>
@@ -44488,7 +44488,7 @@
         </is>
       </c>
       <c r="F559" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G559" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="F560" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G560" t="inlineStr">
         <is>
@@ -44646,7 +44646,7 @@
         </is>
       </c>
       <c r="F561" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G561" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         </is>
       </c>
       <c r="F562" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G562" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         </is>
       </c>
       <c r="F563" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G563" t="inlineStr">
         <is>
@@ -44883,7 +44883,7 @@
         </is>
       </c>
       <c r="F564" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G564" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         </is>
       </c>
       <c r="F565" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G565" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         </is>
       </c>
       <c r="F566" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G566" t="inlineStr">
         <is>
@@ -45120,7 +45120,7 @@
         </is>
       </c>
       <c r="F567" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G567" t="inlineStr">
         <is>
@@ -45199,7 +45199,7 @@
         </is>
       </c>
       <c r="F568" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G568" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         </is>
       </c>
       <c r="F569" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G569" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         </is>
       </c>
       <c r="F570" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G570" t="inlineStr">
         <is>
@@ -45436,7 +45436,7 @@
         </is>
       </c>
       <c r="F571" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G571" t="inlineStr">
         <is>
@@ -45515,7 +45515,7 @@
         </is>
       </c>
       <c r="F572" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G572" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         </is>
       </c>
       <c r="F573" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G573" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         </is>
       </c>
       <c r="F574" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G574" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         </is>
       </c>
       <c r="F575" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G575" t="inlineStr">
         <is>
@@ -45831,7 +45831,7 @@
         </is>
       </c>
       <c r="F576" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G576" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         </is>
       </c>
       <c r="F577" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G577" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         </is>
       </c>
       <c r="F578" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G578" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         </is>
       </c>
       <c r="F579" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G579" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         </is>
       </c>
       <c r="F580" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G580" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="F581" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G581" t="inlineStr">
         <is>
@@ -46305,7 +46305,7 @@
         </is>
       </c>
       <c r="F582" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G582" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         </is>
       </c>
       <c r="F583" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G583" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         </is>
       </c>
       <c r="F584" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G584" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         </is>
       </c>
       <c r="F585" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G585" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         </is>
       </c>
       <c r="F586" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G586" t="inlineStr">
         <is>
@@ -46700,7 +46700,7 @@
         </is>
       </c>
       <c r="F587" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G587" t="inlineStr">
         <is>
@@ -46779,7 +46779,7 @@
         </is>
       </c>
       <c r="F588" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G588" t="inlineStr">
         <is>
@@ -46858,7 +46858,7 @@
         </is>
       </c>
       <c r="F589" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G589" t="inlineStr">
         <is>
@@ -46937,7 +46937,7 @@
         </is>
       </c>
       <c r="F590" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G590" t="inlineStr">
         <is>
@@ -47016,7 +47016,7 @@
         </is>
       </c>
       <c r="F591" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G591" t="inlineStr">
         <is>
@@ -47095,7 +47095,7 @@
         </is>
       </c>
       <c r="F592" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G592" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         </is>
       </c>
       <c r="F593" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G593" t="inlineStr">
         <is>
@@ -47253,7 +47253,7 @@
         </is>
       </c>
       <c r="F594" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G594" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         </is>
       </c>
       <c r="F595" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G595" t="inlineStr">
         <is>
@@ -47411,7 +47411,7 @@
         </is>
       </c>
       <c r="F596" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G596" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         </is>
       </c>
       <c r="F597" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G597" t="inlineStr">
         <is>
@@ -47569,7 +47569,7 @@
         </is>
       </c>
       <c r="F598" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G598" t="inlineStr">
         <is>
@@ -47648,7 +47648,7 @@
         </is>
       </c>
       <c r="F599" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G599" t="inlineStr">
         <is>
@@ -47727,7 +47727,7 @@
         </is>
       </c>
       <c r="F600" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G600" t="inlineStr">
         <is>
@@ -47806,7 +47806,7 @@
         </is>
       </c>
       <c r="F601" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G601" t="inlineStr">
         <is>
@@ -47885,7 +47885,7 @@
         </is>
       </c>
       <c r="F602" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G602" t="inlineStr">
         <is>
@@ -47964,7 +47964,7 @@
         </is>
       </c>
       <c r="F603" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G603" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="F604" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G604" t="inlineStr">
         <is>
@@ -48122,7 +48122,7 @@
         </is>
       </c>
       <c r="F605" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G605" t="inlineStr">
         <is>
@@ -48201,7 +48201,7 @@
         </is>
       </c>
       <c r="F606" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G606" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         </is>
       </c>
       <c r="F607" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G607" t="inlineStr">
         <is>
@@ -48359,7 +48359,7 @@
         </is>
       </c>
       <c r="F608" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G608" t="inlineStr">
         <is>
@@ -48438,7 +48438,7 @@
         </is>
       </c>
       <c r="F609" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G609" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         </is>
       </c>
       <c r="F610" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G610" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         </is>
       </c>
       <c r="F611" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G611" t="inlineStr">
         <is>
@@ -48675,7 +48675,7 @@
         </is>
       </c>
       <c r="F612" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G612" t="inlineStr">
         <is>
@@ -48754,7 +48754,7 @@
         </is>
       </c>
       <c r="F613" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G613" t="inlineStr">
         <is>
@@ -48833,7 +48833,7 @@
         </is>
       </c>
       <c r="F614" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G614" t="inlineStr">
         <is>
@@ -48912,7 +48912,7 @@
         </is>
       </c>
       <c r="F615" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G615" t="inlineStr">
         <is>
@@ -48991,7 +48991,7 @@
         </is>
       </c>
       <c r="F616" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G616" t="inlineStr">
         <is>
@@ -49070,7 +49070,7 @@
         </is>
       </c>
       <c r="F617" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G617" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="F618" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G618" t="inlineStr">
         <is>
@@ -49228,7 +49228,7 @@
         </is>
       </c>
       <c r="F619" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G619" t="inlineStr">
         <is>
@@ -49295,7 +49295,7 @@
         </is>
       </c>
       <c r="F620" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G620" t="inlineStr">
         <is>
@@ -49362,7 +49362,7 @@
         </is>
       </c>
       <c r="F621" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G621" t="inlineStr">
         <is>
@@ -49429,7 +49429,7 @@
         </is>
       </c>
       <c r="F622" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G622" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         </is>
       </c>
       <c r="F623" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G623" t="inlineStr">
         <is>
@@ -49563,7 +49563,7 @@
         </is>
       </c>
       <c r="F624" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G624" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         </is>
       </c>
       <c r="F625" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G625" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         </is>
       </c>
       <c r="F626" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G626" t="inlineStr">
         <is>
@@ -49764,7 +49764,7 @@
         </is>
       </c>
       <c r="F627" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G627" t="inlineStr">
         <is>
@@ -49831,7 +49831,7 @@
         </is>
       </c>
       <c r="F628" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G628" t="inlineStr">
         <is>
@@ -49898,7 +49898,7 @@
         </is>
       </c>
       <c r="F629" s="2">
-        <v>45664.50391203703</v>
+        <v>45664.52482638889</v>
       </c>
       <c r="G629" t="inlineStr">
         <is>
@@ -49948,6 +49948,26 @@
       <c r="C630">
         <v>1498287247</v>
       </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>25351.118271/2009-76</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>1498287/24-7</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>07489080000130</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>RAZEK EQUIPAMENTOS LTDA</t>
+        </is>
+      </c>
       <c r="O630">
         <v>5</v>
       </c>
@@ -49967,6 +49987,26 @@
       <c r="C631">
         <v>1501423240</v>
       </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>25351.292582/2020-43</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>1501423/24-0</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>02966317000102</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>STRYKER DO BRASIL LTDA</t>
+        </is>
+      </c>
       <c r="O631">
         <v>6</v>
       </c>
@@ -49986,6 +50026,26 @@
       <c r="C632">
         <v>1506248241</v>
       </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>25351.353281/2024-27</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>1506248/24-1</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>21772748000182</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>MOVITEK Comércio e Serviços de Importação e Exportação de Produtos Médicos Hospitalares LTDA</t>
+        </is>
+      </c>
       <c r="O632">
         <v>9</v>
       </c>
@@ -50005,6 +50065,26 @@
       <c r="C633">
         <v>1506486240</v>
       </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>25351.053753/2003-10</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>1506486/24-0</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>31673254000102</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>LABORATORIOS B BRAUN SA</t>
+        </is>
+      </c>
       <c r="O633">
         <v>10</v>
       </c>
@@ -50024,6 +50104,26 @@
       <c r="C634">
         <v>1507196245</v>
       </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>25351.325530/2019-27</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>1507196/24-5</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>09557129000170</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>ORTOMEDICAL COMERCIO ATACADISTA DE MATERIAIS MEDICOS HOSPITALARES LTDA</t>
+        </is>
+      </c>
       <c r="O634">
         <v>14</v>
       </c>
@@ -50043,6 +50143,26 @@
       <c r="C635">
         <v>1507329245</v>
       </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>25351.217088/2014-88</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>1507329/24-5</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>08319244000143</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>INN-FORMA MODELADORES CIRURGICOS E ESTETICOS LTDA</t>
+        </is>
+      </c>
       <c r="O635">
         <v>15</v>
       </c>
@@ -50061,6 +50181,26 @@
     <row r="636">
       <c r="C636">
         <v>1507590245</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>25351.234570/2020-02</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>1507590/24-5</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>45985371000108</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>3M DO BRASIL LTDA</t>
+        </is>
       </c>
       <c r="O636">
         <v>16</v>
